--- a/resources/excels/ArmoryModel.xlsx
+++ b/resources/excels/ArmoryModel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="17">
   <si>
     <t>种族</t>
   </si>
@@ -23,10 +23,6 @@
   </si>
   <si>
     <t>Human</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Predator</t>
@@ -498,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -513,44 +509,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -561,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3">
         <v>12601</v>
@@ -575,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3">
         <v>12701</v>
@@ -589,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3">
         <v>12901</v>
@@ -603,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3">
         <v>13001</v>
@@ -617,7 +613,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3">
         <v>13201</v>
@@ -631,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3">
         <v>12801</v>
@@ -645,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3">
         <v>13101</v>
@@ -659,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3">
         <v>13301</v>
@@ -673,7 +669,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3">
         <v>14001</v>
@@ -687,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="3">
         <v>14101</v>
@@ -698,10 +694,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3">
         <v>22601</v>
@@ -712,10 +708,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>22701</v>
@@ -726,10 +722,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="3">
         <v>22901</v>
@@ -740,10 +736,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3">
         <v>23001</v>
@@ -754,10 +750,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="3">
         <v>23201</v>
@@ -768,10 +764,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="3">
         <v>22801</v>
@@ -782,10 +778,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="3">
         <v>23101</v>
@@ -796,10 +792,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="3">
         <v>23301</v>
@@ -810,10 +806,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="3">
         <v>24001</v>
@@ -824,10 +820,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="3">
         <v>24101</v>
@@ -838,10 +834,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="3">
         <v>32601</v>
@@ -852,10 +848,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="3">
         <v>32701</v>
@@ -866,10 +862,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="3">
         <v>32901</v>
@@ -880,10 +876,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="3">
         <v>33001</v>
@@ -894,10 +890,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="3">
         <v>33201</v>
@@ -908,10 +904,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="3">
         <v>32801</v>
@@ -922,10 +918,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="3">
         <v>33101</v>
@@ -936,10 +932,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="3">
         <v>33301</v>
@@ -950,10 +946,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="3">
         <v>34001</v>
@@ -964,10 +960,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="3">
         <v>34101</v>
@@ -981,7 +977,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="6">
         <v>13401</v>
@@ -995,7 +991,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" s="7">
         <v>13601</v>
@@ -1009,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="7">
         <v>16301</v>
@@ -1023,7 +1019,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="7">
         <v>16401</v>
@@ -1037,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="7">
         <v>16501</v>
@@ -1051,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="6">
         <v>13501</v>
@@ -1062,10 +1058,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="7">
         <v>23401</v>
@@ -1076,10 +1072,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="7">
         <v>23601</v>
@@ -1090,10 +1086,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" s="7">
         <v>26301</v>
@@ -1104,10 +1100,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" s="7">
         <v>26401</v>
@@ -1118,10 +1114,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="7">
         <v>26501</v>
@@ -1132,10 +1128,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="7">
         <v>23501</v>
@@ -1146,10 +1142,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="7">
         <v>33401</v>
@@ -1160,10 +1156,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="7">
         <v>33601</v>
@@ -1174,10 +1170,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" s="7">
         <v>36301</v>
@@ -1188,10 +1184,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" s="7">
         <v>36401</v>
@@ -1202,10 +1198,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" s="7">
         <v>36501</v>
@@ -1216,10 +1212,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" s="7">
         <v>33501</v>
